--- a/misc/categorised-visualisations.xlsx
+++ b/misc/categorised-visualisations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charliejhadley/Github/graph-plot-chart-data-story/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93293035-C065-4D4D-86D8-C641DE16E4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CAA9C0-424C-9047-A9A5-ADA04D4820DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="59440" windowHeight="33340" xr2:uid="{5744856F-86A2-EA4B-98C8-46E7B436A581}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="24380" xr2:uid="{5744856F-86A2-EA4B-98C8-46E7B436A581}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Graph</t>
   </si>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>Boxplot</t>
+  </si>
+  <si>
+    <t>When line is great arc.</t>
+  </si>
+  <si>
+    <t>Data Story</t>
+  </si>
+  <si>
+    <t>Bar chart</t>
+  </si>
+  <si>
+    <t>Slope chart</t>
+  </si>
+  <si>
+    <t>Dumbbell chart</t>
   </si>
 </sst>
 </file>
@@ -232,9 +247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +287,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -378,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,10 +543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67415C8B-0BA0-7E4E-B110-CC5E815F01C4}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="363" workbookViewId="0">
-      <selection activeCell="E14" sqref="B14:E14"/>
+    <sheetView tabSelected="1" zoomScale="229" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +559,7 @@
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -560,8 +578,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>_xlfn.LET(_xlpm.rowID,ROW()-1,"VID"&amp;TEXT(_xlpm.rowID,"000000"))</f>
         <v>VID000001</v>
@@ -573,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">_xlfn.LET(_xlpm.rowID,ROW()-1,"VID"&amp;TEXT(_xlpm.rowID,"000000"))</f>
         <v>VID000002</v>
@@ -585,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>VID000003</v>
@@ -597,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>VID000004</v>
@@ -609,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>VID000005</v>
@@ -621,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>VID000006</v>
@@ -633,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>VID000007</v>
@@ -645,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>VID000008</v>
@@ -657,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>VID000009</v>
@@ -669,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>VID000010</v>
@@ -681,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>VID000011</v>
@@ -693,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>VID000012</v>
@@ -705,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>VID000013</v>
@@ -717,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>VID000014</v>
@@ -729,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>VID000015</v>
@@ -744,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>VID000016</v>
@@ -759,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>VID000017</v>
@@ -774,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>VID000018</v>
@@ -786,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>VID000019</v>
@@ -798,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>VID000020</v>
@@ -810,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>VID000021</v>
@@ -822,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>VID000022</v>
@@ -834,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>VID000023</v>
@@ -849,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>VID000024</v>
@@ -864,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>VID000025</v>
@@ -876,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>VID000026</v>
@@ -884,11 +905,14 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>VID000027</v>
@@ -900,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>VID000028</v>
@@ -912,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>VID000029</v>
@@ -924,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>VID000030</v>
@@ -939,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>VID000031</v>
@@ -947,8 +971,11 @@
       <c r="B32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>VID000032</v>
@@ -956,8 +983,11 @@
       <c r="B33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>VID000033</v>
@@ -965,8 +995,11 @@
       <c r="B34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>VID000034</v>
@@ -974,8 +1007,11 @@
       <c r="B35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>VID000035</v>
@@ -983,74 +1019,95 @@
       <c r="B36" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>VID000036</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>VID000037</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>VID000038</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>VID000039</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>VID000040</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>VID000041</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>VID000042</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>VID000043</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>VID000044</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>VID000045</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>VID000046</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>VID000047</v>
